--- a/정은) 로그인/회원테이블.xlsx
+++ b/정은) 로그인/회원테이블.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f6106097c1ee4d/바탕 화면/JAVA/github/정은) 로그인/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\교육과정\사V거리\정은) 로그인\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE51B5F8-701A-4276-9C46-F9141E078EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DF3FDCA-FB7C-4DA6-A419-E4CD8F0CB88F}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
   <si>
     <t>회원테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,13 +268,213 @@
   </si>
   <si>
     <t>jeju064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> : POLICYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔터티 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리두기 단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책 발행일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정책 종료일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사적모임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유흥시설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식당,카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB_REGION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(2000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_PRIVATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_LEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_EDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_SDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_ENTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_REST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ 운영제한 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select로 [ 포장,배달 만 허용 ] [ 운영제한 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유흥시설과 식당,카페 각 최상단에 select로 [ 제한해제 ] [ 운영제한 ] [ 집합금지 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유흥시설과 식당,카페와 비슷하게 select 박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도 클릭하면 P_ID 가져와서 우측에 뿌리고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -323,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -346,20 +545,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -372,6 +577,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,11 +916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A337F794-BE97-4FA6-8582-35693842E293}">
-  <dimension ref="B2:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,24 +934,34 @@
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -748,8 +987,21 @@
       <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -765,7 +1017,7 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -775,8 +1027,23 @@
       <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -784,7 +1051,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -792,7 +1059,7 @@
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -802,8 +1069,23 @@
       <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -811,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
@@ -827,8 +1109,20 @@
       <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -836,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
@@ -852,16 +1146,28 @@
       <c r="K7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
@@ -877,9 +1183,21 @@
       <c r="K8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="4" t="s">
+      <c r="M8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -892,8 +1210,23 @@
       <c r="K9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>78</v>
+      </c>
+      <c r="R9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H10" s="2" t="s">
         <v>48</v>
       </c>
@@ -904,8 +1237,23 @@
       <c r="K10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="2" t="s">
         <v>49</v>
       </c>
@@ -916,8 +1264,23 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="2" t="s">
         <v>50</v>
       </c>
@@ -928,8 +1291,23 @@
       <c r="K12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="2" t="s">
         <v>51</v>
       </c>
@@ -940,8 +1318,20 @@
       <c r="K13" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
@@ -952,8 +1342,11 @@
       <c r="K14" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
@@ -964,8 +1357,9 @@
       <c r="K15" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="2" t="s">
         <v>54</v>
       </c>
@@ -976,6 +1370,10 @@
       <c r="K16" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="N16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16" s="12"/>
     </row>
     <row r="17" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="2" t="s">
@@ -1036,9 +1434,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/정은) 로그인/회원테이블.xlsx
+++ b/정은) 로그인/회원테이블.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\교육과정\사V거리\정은) 로그인\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KIMDONGWOOK\sideProject\hubtest\정은) 로그인\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15BF95-36C7-4C0C-A70E-311B37221E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -431,10 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,13 +456,17 @@
   </si>
   <si>
     <t>지도 클릭하면 P_ID 가져와서 우측에 뿌리고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,12 +571,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,6 +587,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,14 +908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
@@ -937,31 +929,32 @@
     <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="69.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="M2" s="8" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="M2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -987,21 +980,21 @@
       <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1027,23 +1020,23 @@
       <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1069,23 +1062,23 @@
       <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="N5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>88</v>
       </c>
       <c r="Q5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1109,20 +1102,20 @@
       <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="N6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>73</v>
       </c>
       <c r="Q6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1146,20 +1139,20 @@
       <c r="K7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="N7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>72</v>
       </c>
       <c r="Q7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
@@ -1183,20 +1176,20 @@
       <c r="K8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="N8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
@@ -1210,23 +1203,23 @@
       <c r="K9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="N9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>83</v>
       </c>
       <c r="Q9" t="s">
         <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1237,23 +1230,23 @@
       <c r="K10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="N10" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="N10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q10" t="s">
         <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1264,23 +1257,23 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="N11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Q11" t="s">
         <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H12" s="2" t="s">
         <v>50</v>
       </c>
@@ -1291,23 +1284,23 @@
       <c r="K12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="11" t="s">
         <v>87</v>
       </c>
       <c r="Q12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1318,20 +1311,20 @@
       <c r="K13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N13" s="11" t="s">
+      <c r="M13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="6" t="s">
         <v>90</v>
       </c>
       <c r="Q13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1342,11 +1335,11 @@
       <c r="K14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
@@ -1357,9 +1350,9 @@
       <c r="K15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="12"/>
-    </row>
-    <row r="16" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1370,12 +1363,12 @@
       <c r="K16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="R16" s="12"/>
-    </row>
-    <row r="17" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1387,7 +1380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1399,7 +1392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1411,7 +1404,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="H20" s="2" t="s">
         <v>58</v>
       </c>
@@ -1423,7 +1416,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:11" x14ac:dyDescent="0.6">
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
         <v>4</v>

--- a/정은) 로그인/회원테이블.xlsx
+++ b/정은) 로그인/회원테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KIMDONGWOOK\sideProject\hubtest\정은) 로그인\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f6106097c1ee4d/바탕 화면/JAVA/github/정은) 로그인/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15BF95-36C7-4C0C-A70E-311B37221E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{6D15BF95-36C7-4C0C-A70E-311B37221E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29ED94A3-C648-48E6-8E6F-21EC34388B8D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -537,22 +537,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,18 +563,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,8 +571,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,11 +896,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="M2:Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
@@ -929,32 +914,32 @@
     <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="69.6875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="69.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="M2" s="13" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -980,21 +965,21 @@
       <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1020,23 +1005,23 @@
       <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1062,23 +1047,23 @@
       <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1102,20 +1087,21 @@
       <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1139,20 +1125,21 @@
       <c r="K7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
@@ -1176,20 +1163,21 @@
       <c r="K8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
@@ -1203,23 +1191,24 @@
       <c r="K9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11" t="s">
         <v>78</v>
       </c>
       <c r="R9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1230,23 +1219,24 @@
       <c r="K10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11" t="s">
         <v>79</v>
       </c>
       <c r="R10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1257,23 +1247,24 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11" t="s">
         <v>80</v>
       </c>
       <c r="R11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H12" s="2" t="s">
         <v>50</v>
       </c>
@@ -1284,23 +1275,23 @@
       <c r="K12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1311,20 +1302,21 @@
       <c r="K13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1335,11 +1327,11 @@
       <c r="K14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="10" t="s">
+      <c r="R14" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
@@ -1350,9 +1342,9 @@
       <c r="K15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1363,12 +1355,12 @@
       <c r="K16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="R16" s="10"/>
-    </row>
-    <row r="17" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1380,7 +1372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1392,7 +1384,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1404,7 +1396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="8:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H20" s="2" t="s">
         <v>58</v>
       </c>
@@ -1416,7 +1408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.6">
+    <row r="21" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
         <v>4</v>
